--- a/Metadata.xlsx
+++ b/Metadata.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdssama\Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdssama\Documents\GitHub\UofTTeamJTermProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -71,12 +71,6 @@
     <t>Cols</t>
   </si>
   <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
     <t>OtherFemale</t>
   </si>
   <si>
@@ -149,7 +143,13 @@
     <t>TransportAccFemale</t>
   </si>
   <si>
-    <t>Both</t>
+    <t>both</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>female</t>
   </si>
 </sst>
 </file>
@@ -507,7 +507,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -546,266 +546,266 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Metadata.xlsx
+++ b/Metadata.xlsx
@@ -506,9 +506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
